--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H2">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I2">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J2">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="N2">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="O2">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="P2">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="Q2">
-        <v>2.564817838963205</v>
+        <v>0.839165745705</v>
       </c>
       <c r="R2">
-        <v>2.564817838963205</v>
+        <v>7.552491711345</v>
       </c>
       <c r="S2">
-        <v>0.03400238443408463</v>
+        <v>0.003480197833651158</v>
       </c>
       <c r="T2">
-        <v>0.03400238443408463</v>
+        <v>0.003541850097840539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H3">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I3">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J3">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.874738087683695</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N3">
-        <v>0.874738087683695</v>
+        <v>0.217841</v>
       </c>
       <c r="O3">
-        <v>0.5348623010697072</v>
+        <v>0.01575462187815435</v>
       </c>
       <c r="P3">
-        <v>0.5348623010697072</v>
+        <v>0.01575462187815435</v>
       </c>
       <c r="Q3">
-        <v>2.949286575410608</v>
+        <v>0.2513598316016667</v>
       </c>
       <c r="R3">
-        <v>2.949286575410608</v>
+        <v>2.262238484415</v>
       </c>
       <c r="S3">
-        <v>0.03909937556576511</v>
+        <v>0.001042442385052453</v>
       </c>
       <c r="T3">
-        <v>0.03909937556576511</v>
+        <v>0.001060909419513547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.88693519149571</v>
+        <v>3.461605</v>
       </c>
       <c r="H4">
-        <v>3.88693519149571</v>
+        <v>10.384815</v>
       </c>
       <c r="I4">
-        <v>0.08427450214572983</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J4">
-        <v>0.08427450214572983</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.760707308139206</v>
+        <v>3.127632</v>
       </c>
       <c r="N4">
-        <v>0.760707308139206</v>
+        <v>9.382896000000001</v>
       </c>
       <c r="O4">
-        <v>0.4651376989302928</v>
+        <v>0.6785865773754572</v>
       </c>
       <c r="P4">
-        <v>0.4651376989302928</v>
+        <v>0.6785865773754572</v>
       </c>
       <c r="Q4">
-        <v>2.956820006434251</v>
+        <v>10.82662656936</v>
       </c>
       <c r="R4">
-        <v>2.956820006434251</v>
+        <v>97.43963912424</v>
       </c>
       <c r="S4">
-        <v>0.03919924800656079</v>
+        <v>0.044900310248939</v>
       </c>
       <c r="T4">
-        <v>0.03919924800656079</v>
+        <v>0.04569572646432941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88693519149571</v>
+        <v>3.461605</v>
       </c>
       <c r="H5">
-        <v>3.88693519149571</v>
+        <v>10.384815</v>
       </c>
       <c r="I5">
-        <v>0.08427450214572983</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J5">
-        <v>0.08427450214572983</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.874738087683695</v>
+        <v>1.166372333333333</v>
       </c>
       <c r="N5">
-        <v>0.874738087683695</v>
+        <v>3.499117</v>
       </c>
       <c r="O5">
-        <v>0.5348623010697072</v>
+        <v>0.2530619361939296</v>
       </c>
       <c r="P5">
-        <v>0.5348623010697072</v>
+        <v>0.2530619361939296</v>
       </c>
       <c r="Q5">
-        <v>3.400050256359414</v>
+        <v>4.037520300928334</v>
       </c>
       <c r="R5">
-        <v>3.400050256359414</v>
+        <v>36.337682708355</v>
       </c>
       <c r="S5">
-        <v>0.04507525413916904</v>
+        <v>0.01674445063627868</v>
       </c>
       <c r="T5">
-        <v>0.04507525413916904</v>
+        <v>0.01704108127156956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7910337214182</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H6">
-        <v>15.7910337214182</v>
+        <v>11.995387</v>
       </c>
       <c r="I6">
-        <v>0.3423729595879522</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J6">
-        <v>0.3423729595879522</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="N6">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="O6">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="P6">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="Q6">
-        <v>12.01235475495547</v>
+        <v>0.9693112373090002</v>
       </c>
       <c r="R6">
-        <v>12.01235475495547</v>
+        <v>8.723801135781001</v>
       </c>
       <c r="S6">
-        <v>0.1592505705986942</v>
+        <v>0.004019938713516541</v>
       </c>
       <c r="T6">
-        <v>0.1592505705986942</v>
+        <v>0.004091152574175382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7910337214182</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H7">
-        <v>15.7910337214182</v>
+        <v>11.995387</v>
       </c>
       <c r="I7">
-        <v>0.3423729595879522</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J7">
-        <v>0.3423729595879522</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.874738087683695</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="N7">
-        <v>0.874738087683695</v>
+        <v>0.217841</v>
       </c>
       <c r="O7">
-        <v>0.5348623010697072</v>
+        <v>0.01575462187815435</v>
       </c>
       <c r="P7">
-        <v>0.5348623010697072</v>
+        <v>0.01575462187815435</v>
       </c>
       <c r="Q7">
-        <v>13.8130186400221</v>
+        <v>0.2903430110518889</v>
       </c>
       <c r="R7">
-        <v>13.8130186400221</v>
+        <v>2.613087099467</v>
       </c>
       <c r="S7">
-        <v>0.183122388989258</v>
+        <v>0.001204113875298423</v>
       </c>
       <c r="T7">
-        <v>0.183122388989258</v>
+        <v>0.001225444946203697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.3447292494455</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H8">
-        <v>20.3447292494455</v>
+        <v>11.995387</v>
       </c>
       <c r="I8">
-        <v>0.4411038116966709</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J8">
-        <v>0.4411038116966709</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.760707308139206</v>
+        <v>3.127632</v>
       </c>
       <c r="N8">
-        <v>0.760707308139206</v>
+        <v>9.382896000000001</v>
       </c>
       <c r="O8">
-        <v>0.4651376989302928</v>
+        <v>0.6785865773754572</v>
       </c>
       <c r="P8">
-        <v>0.4651376989302928</v>
+        <v>0.6785865773754572</v>
       </c>
       <c r="Q8">
-        <v>15.47638422216665</v>
+        <v>12.505718744528</v>
       </c>
       <c r="R8">
-        <v>15.47638422216665</v>
+        <v>112.551468700752</v>
       </c>
       <c r="S8">
-        <v>0.2051740119619707</v>
+        <v>0.05186386063267277</v>
       </c>
       <c r="T8">
-        <v>0.2051740119619707</v>
+        <v>0.05278263726275076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.3447292494455</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H9">
-        <v>20.3447292494455</v>
+        <v>11.995387</v>
       </c>
       <c r="I9">
-        <v>0.4411038116966709</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J9">
-        <v>0.4411038116966709</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.874738087683695</v>
+        <v>1.166372333333333</v>
       </c>
       <c r="N9">
-        <v>0.874738087683695</v>
+        <v>3.499117</v>
       </c>
       <c r="O9">
-        <v>0.5348623010697072</v>
+        <v>0.2530619361939296</v>
       </c>
       <c r="P9">
-        <v>0.5348623010697072</v>
+        <v>0.2530619361939296</v>
       </c>
       <c r="Q9">
-        <v>17.79630955810249</v>
+        <v>4.663695841475445</v>
       </c>
       <c r="R9">
-        <v>17.79630955810249</v>
+        <v>41.973262573279</v>
       </c>
       <c r="S9">
-        <v>0.2359297997347002</v>
+        <v>0.01934133304103723</v>
       </c>
       <c r="T9">
-        <v>0.2359297997347002</v>
+        <v>0.01968396786567011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.72799506347501</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H10">
-        <v>2.72799506347501</v>
+        <v>65.241863</v>
       </c>
       <c r="I10">
-        <v>0.05914696656979722</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J10">
-        <v>0.05914696656979722</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="N10">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="O10">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="P10">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="Q10">
-        <v>2.075205781353117</v>
+        <v>5.271999223440999</v>
       </c>
       <c r="R10">
-        <v>2.075205781353117</v>
+        <v>47.44799301096899</v>
       </c>
       <c r="S10">
-        <v>0.02751148392898243</v>
+        <v>0.02186409582413993</v>
       </c>
       <c r="T10">
-        <v>0.02751148392898243</v>
+        <v>0.0222514217970998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>21.74728766666667</v>
+      </c>
+      <c r="H11">
+        <v>65.241863</v>
+      </c>
+      <c r="I11">
+        <v>0.4156920000874432</v>
+      </c>
+      <c r="J11">
+        <v>0.4230560507063459</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.217841</v>
+      </c>
+      <c r="O11">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="P11">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="Q11">
+        <v>1.579150297531444</v>
+      </c>
+      <c r="R11">
+        <v>14.212352677783</v>
+      </c>
+      <c r="S11">
+        <v>0.006549070279151375</v>
+      </c>
+      <c r="T11">
+        <v>0.006665088112143776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>21.74728766666667</v>
+      </c>
+      <c r="H12">
+        <v>65.241863</v>
+      </c>
+      <c r="I12">
+        <v>0.4156920000874432</v>
+      </c>
+      <c r="J12">
+        <v>0.4230560507063459</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.127632</v>
+      </c>
+      <c r="N12">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="P12">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="Q12">
+        <v>68.017512819472</v>
+      </c>
+      <c r="R12">
+        <v>612.157615375248</v>
+      </c>
+      <c r="S12">
+        <v>0.2820830115816964</v>
+      </c>
+      <c r="T12">
+        <v>0.2870801574867972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21.74728766666667</v>
+      </c>
+      <c r="H13">
+        <v>65.241863</v>
+      </c>
+      <c r="I13">
+        <v>0.4156920000874432</v>
+      </c>
+      <c r="J13">
+        <v>0.4230560507063459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.499117</v>
+      </c>
+      <c r="O13">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="P13">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="Q13">
+        <v>25.36543465944122</v>
+      </c>
+      <c r="R13">
+        <v>228.288911934971</v>
+      </c>
+      <c r="S13">
+        <v>0.1051958224024555</v>
+      </c>
+      <c r="T13">
+        <v>0.1070593833103052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="H14">
+        <v>61.129673</v>
+      </c>
+      <c r="I14">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="J14">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.242421</v>
+      </c>
+      <c r="N14">
+        <v>0.727263</v>
+      </c>
+      <c r="O14">
+        <v>0.05259686455245877</v>
+      </c>
+      <c r="P14">
+        <v>0.05259686455245876</v>
+      </c>
+      <c r="Q14">
+        <v>4.939705486111</v>
+      </c>
+      <c r="R14">
+        <v>44.457349374999</v>
+      </c>
+      <c r="S14">
+        <v>0.02048600341425473</v>
+      </c>
+      <c r="T14">
+        <v>0.02084891625859586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="H15">
+        <v>61.129673</v>
+      </c>
+      <c r="I15">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="J15">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.217841</v>
+      </c>
+      <c r="O15">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="P15">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="Q15">
+        <v>1.479616566221445</v>
+      </c>
+      <c r="R15">
+        <v>13.316549095993</v>
+      </c>
+      <c r="S15">
+        <v>0.006136282843709449</v>
+      </c>
+      <c r="T15">
+        <v>0.006244988080912655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="H16">
+        <v>61.129673</v>
+      </c>
+      <c r="I16">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="J16">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.127632</v>
+      </c>
+      <c r="N16">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="P16">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="Q16">
+        <v>63.73037380811201</v>
+      </c>
+      <c r="R16">
+        <v>573.573364273008</v>
+      </c>
+      <c r="S16">
+        <v>0.2643033393581099</v>
+      </c>
+      <c r="T16">
+        <v>0.2689855155110518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="H17">
+        <v>61.129673</v>
+      </c>
+      <c r="I17">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="J17">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.499117</v>
+      </c>
+      <c r="O17">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="P17">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="Q17">
+        <v>23.76665311097122</v>
+      </c>
+      <c r="R17">
+        <v>213.899877998741</v>
+      </c>
+      <c r="S17">
+        <v>0.09856533717359026</v>
+      </c>
+      <c r="T17">
+        <v>0.1003114379695229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.731955</v>
+      </c>
+      <c r="H18">
+        <v>5.46391</v>
+      </c>
+      <c r="I18">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J18">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.242421</v>
+      </c>
+      <c r="N18">
+        <v>0.727263</v>
+      </c>
+      <c r="O18">
+        <v>0.05259686455245877</v>
+      </c>
+      <c r="P18">
+        <v>0.05259686455245876</v>
+      </c>
+      <c r="Q18">
+        <v>0.6622832630550001</v>
+      </c>
+      <c r="R18">
+        <v>3.97369957833</v>
+      </c>
+      <c r="S18">
+        <v>0.002746628766896411</v>
+      </c>
+      <c r="T18">
+        <v>0.001863523824747181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.731955</v>
+      </c>
+      <c r="H19">
+        <v>5.46391</v>
+      </c>
+      <c r="I19">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J19">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.217841</v>
+      </c>
+      <c r="O19">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="P19">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="Q19">
+        <v>0.1983772697183334</v>
+      </c>
+      <c r="R19">
+        <v>1.19026361831</v>
+      </c>
+      <c r="S19">
+        <v>0.0008227124949426565</v>
+      </c>
+      <c r="T19">
+        <v>0.000558191319380679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.731955</v>
+      </c>
+      <c r="H20">
+        <v>5.46391</v>
+      </c>
+      <c r="I20">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J20">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.127632</v>
+      </c>
+      <c r="N20">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="P20">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="Q20">
+        <v>8.544549880560002</v>
+      </c>
+      <c r="R20">
+        <v>51.26729928336</v>
+      </c>
+      <c r="S20">
+        <v>0.03543605555403928</v>
+      </c>
+      <c r="T20">
+        <v>0.02404254065052812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.72799506347501</v>
-      </c>
-      <c r="H11">
-        <v>2.72799506347501</v>
-      </c>
-      <c r="I11">
-        <v>0.05914696656979722</v>
-      </c>
-      <c r="J11">
-        <v>0.05914696656979722</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.874738087683695</v>
-      </c>
-      <c r="N11">
-        <v>0.874738087683695</v>
-      </c>
-      <c r="O11">
-        <v>0.5348623010697072</v>
-      </c>
-      <c r="P11">
-        <v>0.5348623010697072</v>
-      </c>
-      <c r="Q11">
-        <v>2.386281185034691</v>
-      </c>
-      <c r="R11">
-        <v>2.386281185034691</v>
-      </c>
-      <c r="S11">
-        <v>0.03163548264081479</v>
-      </c>
-      <c r="T11">
-        <v>0.03163548264081479</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.731955</v>
+      </c>
+      <c r="H21">
+        <v>5.46391</v>
+      </c>
+      <c r="I21">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J21">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.499117</v>
+      </c>
+      <c r="O21">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="P21">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="Q21">
+        <v>3.186476727911667</v>
+      </c>
+      <c r="R21">
+        <v>19.11886036747</v>
+      </c>
+      <c r="S21">
+        <v>0.01321499294056795</v>
+      </c>
+      <c r="T21">
+        <v>0.008966065776861855</v>
       </c>
     </row>
   </sheetData>
